--- a/paper/Book1.xlsx
+++ b/paper/Book1.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-yutian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-yutian\Desktop\DESCrack\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Origin Parameters</t>
   </si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>Improvement</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -84,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,6 +102,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -125,8 +144,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -237,7 +256,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -299,8 +318,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952624" cy="180976"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -349,23 +368,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>1.2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>5∗</m:t>
+                      <m:t>1.25∗</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
@@ -404,7 +411,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -429,13 +436,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
+                          <m:t> 2</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -461,7 +462,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -562,8 +563,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -654,7 +655,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -716,8 +717,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -753,6 +754,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -791,7 +793,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -849,8 +851,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600075" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -925,7 +927,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -984,8 +986,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -1021,6 +1023,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1041,7 +1044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -1099,8 +1102,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -1136,6 +1139,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1193,7 +1197,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -1251,8 +1255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1943100" cy="180975"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -1310,13 +1314,7 @@
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>1.25∗</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
+                        <m:t>1.25∗2</m:t>
                       </m:r>
                     </m:e>
                     <m:sup>
@@ -1349,7 +1347,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1387,7 +1385,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -1467,8 +1465,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1905000" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -1504,6 +1502,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1571,23 +1570,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1.04 ∗</m:t>
+                      <m:t>,1.04 ∗</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
@@ -1638,47 +1625,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> 4</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> 24</m:t>
+                      <m:t>, 4, 24</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1690,7 +1641,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -1828,8 +1779,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="219074"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -1865,6 +1816,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1881,19 +1833,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1.11</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>∗</m:t>
+                      <m:t>1.11∗</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
@@ -1903,7 +1843,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1916,7 +1856,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1930,7 +1870,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1944,35 +1884,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1.4</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>∗</m:t>
+                      <m:t>,1.4∗</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
@@ -1982,7 +1898,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1995,7 +1911,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2009,7 +1925,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2023,23 +1939,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>4, 24</m:t>
+                      <m:t>,4, 24</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -2051,7 +1955,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -2165,8 +2069,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -2202,6 +2106,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2211,7 +2116,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2241,7 +2146,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -2305,8 +2210,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35"/>
@@ -2342,6 +2247,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2351,7 +2257,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2381,7 +2287,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35"/>
@@ -2445,8 +2351,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38"/>
@@ -2482,6 +2388,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2491,7 +2398,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2521,7 +2428,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38"/>
@@ -2585,8 +2492,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="171450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42"/>
@@ -2622,6 +2529,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2648,7 +2556,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42"/>
@@ -2706,8 +2614,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -2743,6 +2651,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2752,7 +2661,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2782,7 +2691,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -2846,8 +2755,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952624" cy="180976"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48"/>
@@ -2896,23 +2805,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>1.2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>5∗</m:t>
+                      <m:t>1.25∗</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
@@ -2951,7 +2848,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2976,13 +2873,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
+                          <m:t> 2</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -3008,7 +2899,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48"/>
@@ -3109,8 +3000,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="TextBox 50"/>
@@ -3146,6 +3037,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3155,7 +3047,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3185,7 +3077,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="TextBox 50"/>
@@ -3249,8 +3141,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -3341,7 +3233,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -3403,8 +3295,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -3440,6 +3332,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3478,7 +3371,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -3536,8 +3429,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600075" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -3612,7 +3505,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -3671,8 +3564,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="TextBox 54"/>
@@ -3708,6 +3601,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3728,7 +3622,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="TextBox 54"/>
@@ -3786,8 +3680,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="TextBox 55"/>
@@ -3823,6 +3717,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3880,7 +3775,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="TextBox 55"/>
@@ -3938,8 +3833,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="171450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="TextBox 56"/>
@@ -3975,6 +3870,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4001,7 +3897,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="TextBox 56"/>
@@ -4059,8 +3955,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="TextBox 57"/>
@@ -4096,6 +3992,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4105,7 +4002,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -4135,7 +4032,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="TextBox 57"/>
@@ -4199,8 +4096,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="TextBox 58"/>
@@ -4291,7 +4188,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="TextBox 58"/>
@@ -4353,8 +4250,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="TextBox 59"/>
@@ -4390,6 +4287,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4428,7 +4326,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="TextBox 59"/>
@@ -4486,8 +4384,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600075" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60"/>
@@ -4562,7 +4460,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60"/>
@@ -4621,8 +4519,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="TextBox 61"/>
@@ -4658,6 +4556,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4678,7 +4577,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="TextBox 61"/>
@@ -4736,8 +4635,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62"/>
@@ -4773,6 +4672,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4830,7 +4730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62"/>
@@ -4888,8 +4788,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="171450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -4925,6 +4825,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4951,7 +4852,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -5009,8 +4910,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73"/>
@@ -5121,7 +5022,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73"/>
@@ -5183,8 +5084,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="76" name="TextBox 75"/>
@@ -5275,7 +5176,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="76" name="TextBox 75"/>
@@ -5337,8 +5238,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76"/>
@@ -5374,6 +5275,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5412,7 +5314,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76"/>
@@ -5470,8 +5372,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600075" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77"/>
@@ -5546,7 +5448,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77"/>
@@ -5605,8 +5507,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78"/>
@@ -5642,6 +5544,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5662,7 +5565,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78"/>
@@ -5720,8 +5623,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79"/>
@@ -5757,6 +5660,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5814,7 +5718,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79"/>
@@ -5872,8 +5776,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80"/>
@@ -5909,6 +5813,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5918,7 +5823,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -5948,7 +5853,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80"/>
@@ -6012,8 +5917,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="171450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81"/>
@@ -6049,6 +5954,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6075,7 +5981,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81"/>
@@ -6133,8 +6039,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="200025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83"/>
@@ -6170,6 +6076,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6179,7 +6086,7 @@
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6209,7 +6116,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83"/>
@@ -6256,6 +6163,4867 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>^37</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="371475" cy="209550"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="314325" y="9525"/>
+              <a:ext cx="371475" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>log</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="314325" y="9525"/>
+              <a:ext cx="371475" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>log_2⁡𝑘</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="19050"/>
+          <a:ext cx="447675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="228600"/>
+          <a:ext cx="676275" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="321563" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="133350"/>
+              <a:ext cx="321563" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑢𝑐𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="133350"/>
+              <a:ext cx="321563" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑠𝑢𝑐𝑐</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379335" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9525" y="323850"/>
+              <a:ext cx="379335" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>log</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9525" y="323850"/>
+              <a:ext cx="379335" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>log_2⁡𝑟</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="209550"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="619125" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑘</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="619125" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="200025"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="200025"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="390525"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐾</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="390525"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="581025"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="581025"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="771525"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑠𝑢𝑐𝑐</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> (%)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="771525"/>
+              <a:ext cx="609600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑠𝑢𝑐𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> (%)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑚</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514349" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="514351" y="0"/>
+              <a:ext cx="514349" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="514351" y="0"/>
+              <a:ext cx="514349" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="523875" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="0"/>
+              <a:ext cx="523875" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="0"/>
+              <a:ext cx="523875" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="533401" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543049" y="0"/>
+              <a:ext cx="533401" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑘</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543049" y="0"/>
+              <a:ext cx="533401" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="209550"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2514599" y="0"/>
+              <a:ext cx="619125" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑖𝑛𝑔𝑙𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2514599" y="0"/>
+              <a:ext cx="619125" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑠𝑖𝑛𝑔𝑙𝑒</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3124200" y="0"/>
+              <a:ext cx="590550" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑢𝑐𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3124200" y="0"/>
+              <a:ext cx="590550" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑠𝑢𝑐𝑐</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="533400" cy="188962"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3733800" y="0"/>
+              <a:ext cx="533400" cy="188962"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑖𝑛𝑔𝑙𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3733800" y="0"/>
+              <a:ext cx="533400" cy="188962"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑠𝑖𝑛𝑔𝑙𝑒^′</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="533400" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4276725" y="0"/>
+              <a:ext cx="533400" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑢𝑐𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4276725" y="0"/>
+              <a:ext cx="533400" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑠𝑢𝑐𝑐^′</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="183320"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4867275" y="0"/>
+              <a:ext cx="600075" cy="183320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑟𝑔𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4867275" y="0"/>
+              <a:ext cx="600075" cy="183320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑚𝑎𝑟𝑔𝑖𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>25</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2^25</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="200025"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="581025" y="200025"/>
+              <a:ext cx="628650" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>12</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="581025" y="200025"/>
+              <a:ext cx="628650" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2^12</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>6</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="190500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 29"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2057400" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>55.55%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 29"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2057400" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>55.55%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="190500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2667000" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>99.22%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2667000" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>99.22%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3276600" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>40%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3276600" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>40%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="533400" cy="180975"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="TextBox 33"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="390525"/>
+              <a:ext cx="533400" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1.1∗2</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>25</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="TextBox 33"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="390525"/>
+              <a:ext cx="533400" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖1.1∗2〗^25</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="219075"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="590550" y="390524"/>
+              <a:ext cx="628650" cy="219075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1.1∗2</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>12</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="590550" y="390524"/>
+              <a:ext cx="628650" cy="219075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖1.1∗2〗^12</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="TextBox 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>5</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="TextBox 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="TextBox 36"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1.2</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="TextBox 36"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1.2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="190500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2057400" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>61%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2057400" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>61%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="190500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="TextBox 38"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2667000" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>99.09%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="TextBox 38"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2667000" y="200025"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>99.09%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3276600" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>45%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3276600" y="200025"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>45%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600074" cy="209550"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="581025"/>
+              <a:ext cx="600074" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1.24∗2</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>25</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="581025"/>
+              <a:ext cx="600074" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖1.24∗2〗^25</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600076" cy="200025"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 41"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600074" y="581025"/>
+              <a:ext cx="600076" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1.24∗2</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>12</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 41"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600074" y="581025"/>
+              <a:ext cx="600076" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖1.24∗2〗^12</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 42"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1104900" y="390525"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>4</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 42"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1104900" y="390525"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1619250" y="390525"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1.56</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1619250" y="390525"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1.56</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="190500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="TextBox 44"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2133600" y="390525"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>68.50%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="TextBox 44"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2133600" y="390525"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>68.50%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="190500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="TextBox 45"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2743200" y="390525"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>99.01%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="TextBox 45"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2743200" y="390525"/>
+              <a:ext cx="609600" cy="190500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>99.01%</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="190499"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="TextBox 46"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3352800" y="390525"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>51%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="TextBox 46"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3352800" y="390525"/>
+              <a:ext cx="514350" cy="190499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>51%</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -6533,8 +11301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6584,13 +11352,13 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>0.22</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>0.17</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>0.46</v>
       </c>
       <c r="G4" s="4"/>
@@ -6636,8 +11404,8 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>5382</v>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>0.99</v>
@@ -6686,7 +11454,7 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>0.46</v>
       </c>
       <c r="E15" s="3">
@@ -6720,7 +11488,7 @@
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>0.25</v>
       </c>
       <c r="F17" s="3">
@@ -6732,4 +11500,720 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C1" s="5">
+        <v>-4</v>
+      </c>
+      <c r="D1" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E1" s="5">
+        <v>-2</v>
+      </c>
+      <c r="F1" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G1" s="5">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.05</v>
+      </c>
+      <c r="C2">
+        <v>5.97</v>
+      </c>
+      <c r="D2">
+        <v>11.42</v>
+      </c>
+      <c r="E2">
+        <v>20.99</v>
+      </c>
+      <c r="F2">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H2">
+        <v>75</v>
+      </c>
+      <c r="I2">
+        <v>88.89</v>
+      </c>
+      <c r="J2">
+        <v>96</v>
+      </c>
+      <c r="K2">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.05</v>
+      </c>
+      <c r="C3">
+        <v>5.97</v>
+      </c>
+      <c r="D3">
+        <v>11.42</v>
+      </c>
+      <c r="E3">
+        <v>20.99</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>88.89</v>
+      </c>
+      <c r="J3">
+        <v>96</v>
+      </c>
+      <c r="K3">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.05</v>
+      </c>
+      <c r="C4">
+        <v>5.97</v>
+      </c>
+      <c r="D4">
+        <v>11.42</v>
+      </c>
+      <c r="E4">
+        <v>20.99</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>88.89</v>
+      </c>
+      <c r="J4">
+        <v>96</v>
+      </c>
+      <c r="K4">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.05</v>
+      </c>
+      <c r="C5">
+        <v>5.97</v>
+      </c>
+      <c r="D5">
+        <v>11.42</v>
+      </c>
+      <c r="E5">
+        <v>20.99</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>88.89</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.05</v>
+      </c>
+      <c r="C6">
+        <v>5.97</v>
+      </c>
+      <c r="D6">
+        <v>11.42</v>
+      </c>
+      <c r="E6">
+        <v>20.99</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H6">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>88.89</v>
+      </c>
+      <c r="J6">
+        <v>96</v>
+      </c>
+      <c r="K6">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.05</v>
+      </c>
+      <c r="C7">
+        <v>5.97</v>
+      </c>
+      <c r="D7">
+        <v>11.42</v>
+      </c>
+      <c r="E7">
+        <v>20.99</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H7">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>88.89</v>
+      </c>
+      <c r="J7">
+        <v>96</v>
+      </c>
+      <c r="K7">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.05</v>
+      </c>
+      <c r="C8">
+        <v>5.97</v>
+      </c>
+      <c r="D8">
+        <v>11.42</v>
+      </c>
+      <c r="E8">
+        <v>20.99</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>88.89</v>
+      </c>
+      <c r="J8">
+        <v>96</v>
+      </c>
+      <c r="K8">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.05</v>
+      </c>
+      <c r="C9">
+        <v>5.97</v>
+      </c>
+      <c r="D9">
+        <v>11.42</v>
+      </c>
+      <c r="E9">
+        <v>20.99</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="H9">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="I9">
+        <v>88.89</v>
+      </c>
+      <c r="J9">
+        <v>96</v>
+      </c>
+      <c r="K9">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.05</v>
+      </c>
+      <c r="C10">
+        <v>5.97</v>
+      </c>
+      <c r="D10">
+        <v>11.42</v>
+      </c>
+      <c r="E10">
+        <v>20.99</v>
+      </c>
+      <c r="F10">
+        <v>36.01</v>
+      </c>
+      <c r="G10" s="8">
+        <v>55.57</v>
+      </c>
+      <c r="H10">
+        <v>75.02</v>
+      </c>
+      <c r="I10">
+        <v>88.9</v>
+      </c>
+      <c r="J10">
+        <v>96.01</v>
+      </c>
+      <c r="K10">
+        <v>98.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.05</v>
+      </c>
+      <c r="C11">
+        <v>5.97</v>
+      </c>
+      <c r="D11">
+        <v>11.42</v>
+      </c>
+      <c r="E11">
+        <v>20.99</v>
+      </c>
+      <c r="F11">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="G11" s="8">
+        <v>55.58</v>
+      </c>
+      <c r="H11">
+        <v>75.03</v>
+      </c>
+      <c r="I11">
+        <v>88.91</v>
+      </c>
+      <c r="J11">
+        <v>96.02</v>
+      </c>
+      <c r="K11">
+        <v>98.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0.6</v>
+      </c>
+      <c r="C1">
+        <v>0.61</v>
+      </c>
+      <c r="D1">
+        <v>0.94</v>
+      </c>
+      <c r="E1">
+        <v>0.95</v>
+      </c>
+      <c r="F1">
+        <v>0.96</v>
+      </c>
+      <c r="G1">
+        <v>0.97</v>
+      </c>
+      <c r="H1">
+        <v>0.98</v>
+      </c>
+      <c r="I1">
+        <v>0.99</v>
+      </c>
+      <c r="J1" s="8">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1.17</v>
+      </c>
+      <c r="L1">
+        <v>1.18</v>
+      </c>
+      <c r="M1">
+        <v>1.19</v>
+      </c>
+      <c r="N1" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="O1">
+        <v>1.57</v>
+      </c>
+      <c r="P1">
+        <v>1.58</v>
+      </c>
+      <c r="Q1">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5.4</v>
+      </c>
+      <c r="C3">
+        <v>5.49</v>
+      </c>
+      <c r="D3">
+        <v>5.64</v>
+      </c>
+      <c r="E3">
+        <v>5.7</v>
+      </c>
+      <c r="F3">
+        <v>5.76</v>
+      </c>
+      <c r="G3">
+        <v>5.82</v>
+      </c>
+      <c r="H3">
+        <v>5.88</v>
+      </c>
+      <c r="I3">
+        <v>5.94</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>5.85</v>
+      </c>
+      <c r="L3">
+        <v>5.9</v>
+      </c>
+      <c r="M3">
+        <v>5.95</v>
+      </c>
+      <c r="N3">
+        <v>6.24</v>
+      </c>
+      <c r="O3">
+        <v>6.28</v>
+      </c>
+      <c r="P3">
+        <v>6.32</v>
+      </c>
+      <c r="Q3">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>262.44</v>
+      </c>
+      <c r="C4">
+        <v>271.26</v>
+      </c>
+      <c r="D4">
+        <v>190.86</v>
+      </c>
+      <c r="E4">
+        <v>194.94</v>
+      </c>
+      <c r="F4">
+        <v>199.07</v>
+      </c>
+      <c r="G4">
+        <v>203.23</v>
+      </c>
+      <c r="H4">
+        <v>207.45</v>
+      </c>
+      <c r="I4">
+        <v>211.7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>216</v>
+      </c>
+      <c r="K4">
+        <v>171.11</v>
+      </c>
+      <c r="L4">
+        <v>174.05</v>
+      </c>
+      <c r="M4">
+        <v>177.01</v>
+      </c>
+      <c r="N4" s="8">
+        <v>155.75</v>
+      </c>
+      <c r="O4">
+        <v>157.75</v>
+      </c>
+      <c r="P4">
+        <v>159.77000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>99.11</v>
+      </c>
+      <c r="C5">
+        <v>99.17</v>
+      </c>
+      <c r="D5">
+        <v>99.02</v>
+      </c>
+      <c r="E5">
+        <v>99.06</v>
+      </c>
+      <c r="F5">
+        <v>99.09</v>
+      </c>
+      <c r="G5">
+        <v>99.13</v>
+      </c>
+      <c r="H5">
+        <v>99.16</v>
+      </c>
+      <c r="I5">
+        <v>99.2</v>
+      </c>
+      <c r="J5">
+        <v>99.23</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>99.03</v>
+      </c>
+      <c r="M5">
+        <v>99.06</v>
+      </c>
+      <c r="N5">
+        <v>99.01</v>
+      </c>
+      <c r="O5">
+        <v>99.03</v>
+      </c>
+      <c r="P5">
+        <v>99.05</v>
+      </c>
+      <c r="Q5">
+        <v>99.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4.7800000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>